--- a/assets/project2f2.xlsx
+++ b/assets/project2f2.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20359"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28914"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Boroncsok Dominik 9.I\projekt '25.apr\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A453E338-E609-4C85-B714-E01C007EAF07}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{A453E338-E609-4C85-B714-E01C007EAF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{357B1C3D-39B5-4E86-8DE1-1E41FA1F0A46}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{0A47C6DA-8B0F-3546-AEB6-EBED6B62286F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>Követelmények</t>
   </si>
@@ -42,9 +53,15 @@
     <t>A projektet git-ben vezetjük, minden fontosabb változást commitolunk.</t>
   </si>
   <si>
+    <t>✅</t>
+  </si>
+  <si>
     <t>A footer és header külön branch-en készült.</t>
   </si>
   <si>
+    <t>❌</t>
+  </si>
+  <si>
     <t>Ezeket sikeresen merge-öltük a main vagy master ágba.</t>
   </si>
   <si>
@@ -100,12 +117,6 @@
   </si>
   <si>
     <t>Megjegyzés / egyéb, amit érdemes kiemelni</t>
-  </si>
-  <si>
-    <t>✅</t>
-  </si>
-  <si>
-    <t>❌</t>
   </si>
 </sst>
 </file>
@@ -576,7 +587,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -608,170 +619,176 @@
         <v>4</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3" ht="15.75">
       <c r="A4" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" ht="16.5">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" ht="15.75">
       <c r="A7" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" ht="15.75">
       <c r="A8" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" ht="15.75">
       <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" ht="16.5">
       <c r="A10" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:3" ht="15.75">
       <c r="A11" s="10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" ht="15.75">
       <c r="A12" s="10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3" ht="16.5">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" ht="15.75">
       <c r="A14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" ht="15.75">
       <c r="A15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" ht="28.5">
       <c r="A16" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" ht="15.75">
       <c r="A17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" ht="16.5">
       <c r="A18" s="11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3" ht="15.75">
       <c r="A19" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3" ht="15.75">
       <c r="A20" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3" ht="15.75">
       <c r="A21" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3" ht="15.75">
       <c r="A22" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:3" ht="16.5">
       <c r="A23" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -793,15 +810,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100483F24D3A4451D46840DD0DA95324D39" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d241c977c5146118c25386f1e66a17fe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3746a87c-4039-4771-a4fa-29fa59d3114e" xmlns:ns3="7dc6b57d-424f-4558-b75d-d51e283b8496" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d1cd7cdd18b342ffb18cb6bb3ff977a6" ns2:_="" ns3:_="">
     <xsd:import namespace="3746a87c-4039-4771-a4fa-29fa59d3114e"/>
@@ -1002,6 +1010,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1015,39 +1032,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{742ADA0E-2EB1-4FED-BB09-4E776D0041DC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1FA8B59-3E7B-4BCD-9F18-22A2D5DDD18B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1FA8B59-3E7B-4BCD-9F18-22A2D5DDD18B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3746a87c-4039-4771-a4fa-29fa59d3114e"/>
-    <ds:schemaRef ds:uri="7dc6b57d-424f-4558-b75d-d51e283b8496"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{742ADA0E-2EB1-4FED-BB09-4E776D0041DC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBC475F3-04E8-4CA2-9B20-4864C81F64CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3746a87c-4039-4771-a4fa-29fa59d3114e"/>
-    <ds:schemaRef ds:uri="7dc6b57d-424f-4558-b75d-d51e283b8496"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBC475F3-04E8-4CA2-9B20-4864C81F64CD}"/>
 </file>